--- a/Content/TableData/MenuElement.xlsx
+++ b/Content/TableData/MenuElement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DEF152-C59F-47EB-ADBF-563D9A11984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7063B5C-64D8-4926-846B-B0B1169D3A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38895" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35460" yWindow="8100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ImagePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,10 @@
   <si>
     <t>users</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -425,13 +425,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,7 +519,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -541,7 +541,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
